--- a/lp_tenant_importer_v2/samples/core_config_light.xlsx
+++ b/lp_tenant_importer_v2/samples/core_config_light.xlsx
@@ -1471,7 +1471,7 @@
     <t xml:space="preserve">QuickSign - Annulations importantes</t>
   </si>
   <si>
-    <t xml:space="preserve">["10.205.83.1:5504/Repo-cloud", "10.234.74.1:5504/Repo-secu"]</t>
+    <t xml:space="preserve">['10.234.74.1:5504/Repo_system', '10.234.74.1:5504/Repo_system_verbose', '10.205.83.1:5504/Repo_system', '10.205.83.1:5504/Repo_system_verbose']</t>
   </si>
   <si>
     <t xml:space="preserve">5bf3e54d03a0f32ee1e1ebc7</t>
@@ -1626,7 +1626,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1643,8 +1643,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2564,10 +2568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG1048576"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2587,13 +2591,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="50.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="46.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="46.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="32.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2768,11 +2775,11 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>477</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2904,44 +2911,6 @@
         <v>496</v>
       </c>
     </row>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
